--- a/biology/Médecine/Dette_de_sommeil/Dette_de_sommeil.xlsx
+++ b/biology/Médecine/Dette_de_sommeil/Dette_de_sommeil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dette de sommeil est un terme qui conceptualise l'effet cumulé du manque de sommeil. Elle est évaluée par la différence entre temps de sommeil idéal et temps de sommeil en semaine : si cette différence est supérieure à 60 minutes, on parle de « dette de sommeil » ; si elle est supérieure à 90 minutes, de « dette de sommeil sévère »[1].
-La restriction de sommeil est quant à elle la différence entre le temps de sommeil total en repos/24h et le temps de sommeil total en semaine/24h. Elle est évaluée par la différence entre temps de sommeil le week-end et en semaine : on parle de restriction moyenne si l’écart est situé entre 61 et 120 minutes, de restriction sévère s’il est de 2 heures ou plus[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dette de sommeil est un terme qui conceptualise l'effet cumulé du manque de sommeil. Elle est évaluée par la différence entre temps de sommeil idéal et temps de sommeil en semaine : si cette différence est supérieure à 60 minutes, on parle de « dette de sommeil » ; si elle est supérieure à 90 minutes, de « dette de sommeil sévère ».
+La restriction de sommeil est quant à elle la différence entre le temps de sommeil total en repos/24h et le temps de sommeil total en semaine/24h. Elle est évaluée par la différence entre temps de sommeil le week-end et en semaine : on parle de restriction moyenne si l’écart est situé entre 61 et 120 minutes, de restriction sévère s’il est de 2 heures ou plus.
 Une grande dette de sommeil, par exemple, suggère qu'une personne est mentalement et physiquement fatiguée à cause d'un sommeil insuffisant. 
 La dette de sommeil est une des principales causes d'accidents de la route.
 La dette de sommeil serait égale au manque de sommeil cumulé sur les 6 à 14 derniers jours d'un individu[réf. souhaitée]. Au-delà le corps semblerait ne pas tenir compte du manque de sommeil[réf. souhaitée].
